--- a/beijing.xlsx
+++ b/beijing.xlsx
@@ -15,63 +15,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
-  <si>
-    <t>Adelphi University</t>
-  </si>
-  <si>
-    <t>Ashland University</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+  <si>
+    <t>American University</t>
+  </si>
+  <si>
+    <t>Amherst College</t>
   </si>
   <si>
     <t>Baylor University</t>
   </si>
   <si>
-    <t>Boston College</t>
-  </si>
-  <si>
-    <t>California Baptist University</t>
-  </si>
-  <si>
-    <t>California Institute of Technology</t>
-  </si>
-  <si>
-    <t>Case Western Reserve University</t>
-  </si>
-  <si>
-    <t>Clemson University</t>
-  </si>
-  <si>
-    <t>Colgate University</t>
-  </si>
-  <si>
-    <t>Files/school_information_img/school_image_161_100.png</t>
-  </si>
-  <si>
-    <t>Files/school_information_img/school_image_174_100.png</t>
-  </si>
-  <si>
-    <t>Files/school_information_img/school_image_279_100.png</t>
-  </si>
-  <si>
-    <t>Files/school_information_img/school_image_32_100.png</t>
-  </si>
-  <si>
-    <t>Files/school_information_img/school_image_370_100.png</t>
-  </si>
-  <si>
-    <t>Files/school_information_img/school_image_482_100.png</t>
-  </si>
-  <si>
-    <t>Files/school_information_img/school_image_500_100.png</t>
-  </si>
-  <si>
-    <t>Files/school_information_img/school_image_507_100.png</t>
-  </si>
-  <si>
-    <t>Files/school_information_img/school_image_536_100.png</t>
-  </si>
-  <si>
-    <t>University of Hartford</t>
+    <t>Biola University</t>
+  </si>
+  <si>
+    <t>Boston University</t>
+  </si>
+  <si>
+    <t>Clark University</t>
+  </si>
+  <si>
+    <t>Files/school_information_img/school_image_193_100.png</t>
+  </si>
+  <si>
+    <t>Files/school_information_img/school_image_199_100.png</t>
+  </si>
+  <si>
+    <t>Files/school_information_img/school_image_480_100.png</t>
+  </si>
+  <si>
+    <t>Files/school_information_img/school_image_501_100.png</t>
+  </si>
+  <si>
+    <t>Illinois State University</t>
   </si>
   <si>
     <t>acronym</t>
@@ -92,34 +68,25 @@
     <t>english_name</t>
   </si>
   <si>
-    <t>http://www.adelphi.edu</t>
-  </si>
-  <si>
-    <t>http://www.ashland.edu/</t>
+    <t>http://www.american.edu</t>
+  </si>
+  <si>
+    <t>http://www.amherst.edu/</t>
   </si>
   <si>
     <t>http://www.baylor.edu/</t>
   </si>
   <si>
-    <t>http://www.bc.edu</t>
-  </si>
-  <si>
-    <t>http://www.calbaptist.edu/</t>
-  </si>
-  <si>
-    <t>http://www.caltech.edu/</t>
-  </si>
-  <si>
-    <t>http://www.case.edu/</t>
-  </si>
-  <si>
-    <t>http://www.clemson.edu/</t>
-  </si>
-  <si>
-    <t>http://www.colgate.edu/</t>
-  </si>
-  <si>
-    <t>http://www.hartford.edu</t>
+    <t>http://www.biola.edu/</t>
+  </si>
+  <si>
+    <t>http://www.bu.edu/</t>
+  </si>
+  <si>
+    <t>http://www.clarku.edu/</t>
+  </si>
+  <si>
+    <t>http://www.ilstu.edu/</t>
   </si>
   <si>
     <t>introduction</t>
@@ -137,49 +104,35 @@
     <t>tuition_fees</t>
   </si>
   <si>
-    <t xml:space="preserve">克莱姆森大学 </t>
-  </si>
-  <si>
-    <t>克莱姆森大学成立于1889年，位于美国南卡罗来纳州克莱姆森，是一所学费较便宜的公立大学。目前，学校已经确立了截止2011要跻身美国顶尖的20所公立大学之列。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">凯斯西储大学 </t>
-  </si>
-  <si>
-    <t>凯斯西储大学(Case Western Reserve University)成立于1826年，位于俄亥俄州的克里夫兰，是俄亥俄州最大的私立研究型大学，也是该州评价一流的大学，为美国备受推崇的学府之一。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加利福尼亚浸会大学 </t>
-  </si>
-  <si>
-    <t>加利福尼亚浸会大学,1950年，位于加利福尼亚州的河边。跻身《美国新闻与世界报道》“西部地区最佳大学”提名。该校重视学生学术能力、多元化经历、以及实践活动。我校研究生院采用小班上课形式，并由专业教授亲自授课。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加州理工学院 </t>
-  </si>
-  <si>
-    <t>加州理工学院（California Institute of Technology，简称 Caltech）创建于1891年，位于美国加州。，是世界顶尖的理工类学府。有31人32次获得诺贝尔奖。加州理工学院在2000年《美国新闻与世界报道》年度大学排行中名列全美大学第1位。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">哈特福德大学 </t>
-  </si>
-  <si>
-    <t>哈特福德大学最早于1877年建校，是一所私立综合性独立大学。 哈特福德大学的主校区坐落于康涅狄格州中部的西哈特福德市，距离州政府哈特福德仅十几分钟的车程，。学校由七所学院组成，为学生提供86个学士学位和32个硕士博士学位，学生来自美国40个洲及世界65个国家。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">波士顿学院 </t>
-  </si>
-  <si>
-    <t>波士顿学院成立于1863年，是旧耶稣会会员的其中之一，在美国是属于天主教的大学为一典型教会学校。它是一个采取男女合校教育的大学，注册的学生在大学部有八千九百人，研究所则有四千六百人。波士顿学院每年颁发超过三千八百个学位，广及五十个学术领域、十一个系所。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">科尔盖特大学 </t>
-  </si>
-  <si>
-    <t>科尔盖特大学始建于1819年，位于纽约州的汉密尔顿市，校风严谨传统，是美国著名的私立文科大学，不仅学术水平高，并且校园环境优美，在众多排名中名列前茅，非常受学生喜爱。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">艾德菲大学位于美国纽约，1896年建校，可授予各种学士、硕士及博士学位，是纽约长岛上最古老的高等学习机构。2005年，普林斯顿评论把艾德菲大学评为美国东北部最好的大学之一。 　</t>
+    <t xml:space="preserve">伊利诺伊州立大学 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">伊利诺州立大学创建于1857年,位于伊利诺州的诺尔莫市.该校是一所四年制公立大学.最好的学科是教育、商科、法律、工程和美术。而社会科学,商科管理,教育,大众传播,市场营销.该校相较于其他学校的一个相对优势在于费用比较低廉,录取门槛也相对较低,但这些却并不影响其教育质量.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">克拉克大学 </t>
+  </si>
+  <si>
+    <t>克拉克大学成立于1887年，位于马萨诸塞州的伍斯特市，是一所小型贵族大学。大学崇尚“小班教学”，平均每班上课人数仅为25人。大学的心理和地理有两科是举国知名的， “Heinz Werner Institute”是全美数一数二的心理学学院；而大学颁发的地理学博士，则是全美各大学中之冠。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拜欧拉大学 </t>
+  </si>
+  <si>
+    <t>拜欧拉大学是所基督教大学，创办于1908年。该校共有六个分校，提供145个从学士学位到博士学位的课程，所有课程都得到认证。拜欧拉大学被US News公认为美国3300所大学中的229所有名的大学之一。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">波士顿大学 </t>
+  </si>
+  <si>
+    <t>波士顿大学创校于1839年，位于麻州波士顿市，是全美第三大私立大学。波士顿大学采取国际化、多元化的管理经营方式，它吸引了来自世界各地的学生，使波士顿大学成为一个世界文化交流的学府。</t>
+  </si>
+  <si>
+    <t>美利坚大学</t>
+  </si>
+  <si>
+    <t>美国大学（American University，简称AU）成立于公元1893年，位于华盛顿为一所拥有百年历史的私立四年制全球性大学，美国大学（American University）师资阵容坚强，教学严谨，经常有许多政坛上的风云人物应邀到学校演讲，像前美国总统肯尼迪，就曾应邀演讲。</t>
   </si>
   <si>
     <t xml:space="preserve">贝勒大学 </t>
@@ -188,13 +141,10 @@
     <t>贝勒大学校成立于1845年，本部位于美国得克萨斯州维柯，占地735英亩，是一所私立大学，同时也是全世界最大的浸信会大学。该校为全德州未更名大学中历史最悠久的一所。</t>
   </si>
   <si>
-    <t xml:space="preserve">阿什兰大学 </t>
-  </si>
-  <si>
-    <t>阿什兰大学成立于1878年，位于俄亥俄州阿什兰市，是一所独立的综合性大学，商科和教育专业是其强项。校方十分注重学生个别教育，提供各类辅导服务。阿什兰大学在不断提高教学质量与师资水平的同时，也致力于提高学生的生活条件，该校学生餐厅连续五年被授予“全美高校膳食服务质量最佳”称号。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">阿德菲大学 </t>
+    <t>阿默斯特学院</t>
+  </si>
+  <si>
+    <t>阿默斯特学院成立于1821年。位于美国马萨诸塞州的先锋谷。占地964英亩，共有30个系，有“小常春藤”之美誉。2009年美国大学本科文理学院排名第1，2009年美国大学本科最有价值文理学院排名第1。</t>
   </si>
 </sst>
 </file>
@@ -555,7 +505,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,37 +529,37 @@
   <sheetData>
     <row spans="1:12" r="1">
       <c t="s" r="B1" s="1">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c t="s" r="C1" s="1">
+        <v>16</v>
+      </c>
+      <c t="s" r="D1" s="1">
+        <v>13</v>
+      </c>
+      <c t="s" r="E1" s="1">
         <v>24</v>
       </c>
-      <c t="s" r="D1" s="1">
-        <v>21</v>
-      </c>
-      <c t="s" r="E1" s="1">
-        <v>35</v>
-      </c>
       <c t="s" r="F1" s="1">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c t="s" r="G1" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c t="s" r="H1" s="1">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c t="s" r="I1" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c t="s" r="J1" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c t="s" r="K1" s="1">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c t="s" r="L1" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row spans="1:12" r="2">
@@ -617,28 +567,28 @@
         <v>0</v>
       </c>
       <c t="n" r="B2">
-        <v>1299</v>
+        <v>1028</v>
       </c>
       <c t="s" r="C2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c t="s" r="D2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c t="s" r="E2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c t="n" r="G2">
         <v>2</v>
       </c>
       <c t="s" r="H2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c t="n" r="J2">
-        <v>7617.0</v>
+        <v>7440.0</v>
       </c>
       <c t="s" r="K2">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row spans="1:12" r="3">
@@ -646,28 +596,28 @@
         <v>1</v>
       </c>
       <c t="n" r="B3">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c t="s" r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c t="s" r="D3">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c t="s" r="E3">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c t="n" r="G3">
         <v>2</v>
       </c>
       <c t="s" r="H3">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c t="n" r="J3">
-        <v>8647.0</v>
+        <v>0.0</v>
       </c>
       <c t="s" r="K3">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row spans="1:12" r="4">
@@ -675,28 +625,19 @@
         <v>2</v>
       </c>
       <c t="n" r="B4">
-        <v>1543</v>
+        <v>269</v>
       </c>
       <c t="s" r="C4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c t="s" r="D4">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c t="s" r="E4">
-        <v>53</v>
-      </c>
-      <c t="n" r="G4">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c t="s" r="H4">
-        <v>33</v>
-      </c>
-      <c t="n" r="J4">
-        <v>0.0</v>
-      </c>
-      <c t="s" r="K4">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row spans="1:12" r="5">
@@ -704,28 +645,19 @@
         <v>3</v>
       </c>
       <c t="n" r="B5">
-        <v>1451</v>
+        <v>1554</v>
       </c>
       <c t="s" r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="s" r="D5">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c t="s" r="E5">
-        <v>54</v>
-      </c>
-      <c t="n" r="G5">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c t="s" r="H5">
-        <v>25</v>
-      </c>
-      <c t="n" r="J5">
-        <v>9257.0</v>
-      </c>
-      <c t="s" r="K5">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row spans="1:12" r="6">
@@ -733,28 +665,19 @@
         <v>4</v>
       </c>
       <c t="n" r="B6">
-        <v>1537</v>
+        <v>1048</v>
       </c>
       <c t="s" r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c t="s" r="D6">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c t="s" r="E6">
-        <v>45</v>
-      </c>
-      <c t="n" r="G6">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c t="s" r="H6">
-        <v>29</v>
-      </c>
-      <c t="n" r="J6">
-        <v>0.0</v>
-      </c>
-      <c t="s" r="K6">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row spans="1:12" r="7">
@@ -762,28 +685,19 @@
         <v>5</v>
       </c>
       <c t="n" r="B7">
-        <v>1204</v>
+        <v>1554</v>
       </c>
       <c t="s" r="C7">
+        <v>1</v>
+      </c>
+      <c t="s" r="D7">
+        <v>41</v>
+      </c>
+      <c t="s" r="E7">
+        <v>42</v>
+      </c>
+      <c t="s" r="H7">
         <v>18</v>
-      </c>
-      <c t="s" r="D7">
-        <v>48</v>
-      </c>
-      <c t="s" r="E7">
-        <v>49</v>
-      </c>
-      <c t="n" r="G7">
-        <v>2</v>
-      </c>
-      <c t="s" r="H7">
-        <v>34</v>
-      </c>
-      <c t="n" r="J7">
-        <v>7440.0</v>
-      </c>
-      <c t="s" r="K7">
-        <v>11</v>
       </c>
     </row>
     <row spans="1:12" r="8">
@@ -791,28 +705,28 @@
         <v>6</v>
       </c>
       <c t="n" r="B8">
-        <v>1079</v>
+        <v>1481</v>
       </c>
       <c t="s" r="C8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c t="s" r="D8">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c t="s" r="E8">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c t="n" r="G8">
         <v>2</v>
       </c>
       <c t="s" r="H8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c t="n" r="J8">
-        <v>9472.0</v>
+        <v>7635.0</v>
       </c>
       <c t="s" r="K8">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row spans="1:12" r="9">
@@ -820,19 +734,28 @@
         <v>7</v>
       </c>
       <c t="n" r="B9">
-        <v>1048</v>
+        <v>1028</v>
       </c>
       <c t="s" r="C9">
+        <v>0</v>
+      </c>
+      <c t="s" r="D9">
+        <v>37</v>
+      </c>
+      <c t="s" r="E9">
+        <v>38</v>
+      </c>
+      <c t="n" r="G9">
         <v>2</v>
       </c>
-      <c t="s" r="D9">
-        <v>55</v>
-      </c>
-      <c t="s" r="E9">
-        <v>56</v>
-      </c>
       <c t="s" r="H9">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c t="n" r="J9">
+        <v>7440.0</v>
+      </c>
+      <c t="s" r="K9">
+        <v>7</v>
       </c>
     </row>
     <row spans="1:12" r="10">
@@ -840,28 +763,28 @@
         <v>8</v>
       </c>
       <c t="n" r="B10">
-        <v>1498</v>
+        <v>1504</v>
       </c>
       <c t="s" r="C10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c t="s" r="D10">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c t="s" r="E10">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c t="n" r="G10">
         <v>2</v>
       </c>
       <c t="s" r="H10">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c t="n" r="J10">
-        <v>9472.0</v>
+        <v>8025.0</v>
       </c>
       <c t="s" r="K10">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row spans="1:12" r="11">
@@ -869,28 +792,28 @@
         <v>9</v>
       </c>
       <c t="n" r="B11">
-        <v>221</v>
+        <v>1481</v>
       </c>
       <c t="s" r="C11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c t="s" r="D11">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c t="s" r="E11">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c t="n" r="G11">
         <v>2</v>
       </c>
       <c t="s" r="H11">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c t="n" r="J11">
-        <v>0.0</v>
+        <v>7635.0</v>
       </c>
       <c t="s" r="K11">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row spans="1:12" r="12">
@@ -898,19 +821,48 @@
         <v>10</v>
       </c>
       <c t="n" r="B12">
-        <v>1048</v>
+        <v>1504</v>
       </c>
       <c t="s" r="C12">
+        <v>10</v>
+      </c>
+      <c t="s" r="D12">
+        <v>29</v>
+      </c>
+      <c t="s" r="E12">
+        <v>30</v>
+      </c>
+      <c t="n" r="G12">
         <v>2</v>
       </c>
-      <c t="s" r="D12">
-        <v>55</v>
-      </c>
-      <c t="s" r="E12">
-        <v>56</v>
-      </c>
       <c t="s" r="H12">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c t="n" r="J12">
+        <v>8025.0</v>
+      </c>
+      <c t="s" r="K12">
+        <v>9</v>
+      </c>
+    </row>
+    <row spans="1:12" r="13">
+      <c t="n" r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c t="n" r="B13">
+        <v>1554</v>
+      </c>
+      <c t="s" r="C13">
+        <v>1</v>
+      </c>
+      <c t="s" r="D13">
+        <v>41</v>
+      </c>
+      <c t="s" r="E13">
+        <v>42</v>
+      </c>
+      <c t="s" r="H13">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
